--- a/prdz.xlsx
+++ b/prdz.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gleb/Desktop/Projects/tinkoff/trash/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gleb/Desktop/Projects/tinkoff/Auto homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Предмет</t>
   </si>
@@ -116,16 +116,19 @@
     <t>Мат. анализ</t>
   </si>
   <si>
-    <t>Готовиться к устной защите способов получение металла из руды</t>
-  </si>
-  <si>
     <t>Взять форму для занятий в зале</t>
   </si>
   <si>
     <t>модуль 5 1a, 1b, 2a стр 71 Р. Т. Выучить</t>
   </si>
   <si>
-    <t>см. почту + сделать 267 вариант ( http://alexlarin.net/ege/2019/trvar267.html )</t>
+    <t>см. почту + сделать 267 вариант (http://alexlarin.net/ege/2019/trvar267.html)</t>
+  </si>
+  <si>
+    <t>Отдыхаем</t>
+  </si>
+  <si>
+    <t>Готовиться к устной защите способов получение металла из руды ( тем, кто не сдал )</t>
   </si>
 </sst>
 </file>
@@ -603,14 +606,14 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -738,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -918,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -948,7 +951,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -978,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1008,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>

--- a/prdz.xlsx
+++ b/prdz.xlsx
@@ -119,9 +119,6 @@
     <t>Взять форму для занятий в зале</t>
   </si>
   <si>
-    <t>модуль 5 1a, 1b, 2a стр 71 Р. Т. Выучить</t>
-  </si>
-  <si>
     <t>Отдыхаем</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>cм.фото (скоро будет)</t>
+  </si>
+  <si>
+    <t>на уроке смотрели кино, поэтому, скорее всего, ничего не заданно</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -983,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1013,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1103,7 +1103,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>

--- a/prdz.xlsx
+++ b/prdz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Предмет</t>
   </si>
@@ -119,26 +119,42 @@
     <t>Взять форму для занятий в зале</t>
   </si>
   <si>
-    <t>Отдыхаем</t>
+    <t xml:space="preserve">Читать стихи Ахматовой из списка (спс Мише) :
+1. «Любовь»
+2. «Сероглазый король»
+3. «Он любил…»
+4. «Туманом легким сад наполнился…»
+5. «Смятение»
+6. «Вечером»
+7. «Все мы бражники здесь, блудницы…»
+8. «Я научилась просто, мудро жить…»
+9. «Ты письмо мое, милый, не комкай…»
+10. «Двадцать первое. Ночь. Понедельник…»
+11. «Сжала руки под темной вуалью» 
+12. «Нет, царевич, я не та…» 
+13. «Уединение»
+14. «Мне голос был, он звал утешно…» 
+15. «Молитва» 
+16. «Не с теми я, кто бросил землю»
+17. «Мужество» 
+18. Поэма «Реквием»
+</t>
   </si>
   <si>
-    <t>Готовиться к устной защите способов получение металла из руды (тем, кто не сдал)</t>
+    <t>Готовиться к защите вашей темы  (см файл)</t>
   </si>
   <si>
-    <t>Вова, мб ты уже перестанешь прогуливать и придешь? Надоел подставлять нас</t>
+    <t>хз</t>
   </si>
   <si>
-    <t>cм.фото (скоро будет)</t>
-  </si>
-  <si>
-    <t>на уроке смотрели кино, поэтому, скорее всего, ничего не заданно</t>
+    <t>Тем, кто не сдал слова из 5 модуля до каникул, могут сдать их завтра</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,6 +177,10 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Al Bayan Plain"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Al Bayan Plain"/>
     </font>
   </fonts>
@@ -292,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,7 +336,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -325,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -683,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -803,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -918,11 +943,11 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="1"/>
@@ -983,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1012,7 +1037,7 @@
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="1"/>
@@ -1039,10 +1064,10 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="23" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1"/>
@@ -1069,10 +1094,10 @@
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="22" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1"/>
@@ -1099,11 +1124,11 @@
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" ht="22" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>32</v>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1129,10 +1154,10 @@
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:24" ht="22" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
@@ -1159,10 +1184,10 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" ht="22" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1"/>
@@ -1189,10 +1214,10 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" ht="22" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1"/>
@@ -1219,10 +1244,10 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" ht="22" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1"/>
@@ -1248,7 +1273,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1274,7 +1299,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1300,7 +1325,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1326,7 +1351,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1352,7 +1377,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1378,7 +1403,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1404,7 +1429,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1430,7 +1455,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1456,7 +1481,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1482,7 +1507,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1508,7 +1533,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1534,7 +1559,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1560,7 +1585,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1586,7 +1611,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1612,7 +1637,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1638,7 +1663,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1664,7 +1689,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1690,7 +1715,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1716,7 +1741,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1742,7 +1767,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1768,7 +1793,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1794,7 +1819,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1820,7 +1845,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1846,7 +1871,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1872,7 +1897,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1898,7 +1923,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1924,7 +1949,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1950,7 +1975,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1976,7 +2001,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2002,7 +2027,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2028,7 +2053,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2054,7 +2079,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2080,7 +2105,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2106,7 +2131,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2132,7 +2157,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2158,7 +2183,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2184,7 +2209,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2210,7 +2235,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2236,7 +2261,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2262,7 +2287,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2288,7 +2313,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2314,7 +2339,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2340,7 +2365,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2366,7 +2391,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2392,7 +2417,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2418,7 +2443,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2444,7 +2469,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2470,7 +2495,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2496,7 +2521,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2522,7 +2547,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2548,7 +2573,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2574,7 +2599,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2600,7 +2625,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2626,7 +2651,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2652,7 +2677,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2678,7 +2703,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2704,7 +2729,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2730,7 +2755,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2756,7 +2781,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2782,7 +2807,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2808,7 +2833,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2834,7 +2859,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2860,7 +2885,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2886,7 +2911,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2912,7 +2937,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2938,7 +2963,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2964,7 +2989,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2990,7 +3015,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3016,7 +3041,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3042,7 +3067,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3068,7 +3093,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3094,7 +3119,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3120,7 +3145,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3146,7 +3171,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3172,7 +3197,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3198,7 +3223,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3224,7 +3249,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3250,7 +3275,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3276,7 +3301,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3302,7 +3327,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3328,7 +3353,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3354,7 +3379,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3380,7 +3405,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3406,7 +3431,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3432,7 +3457,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3458,7 +3483,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3484,7 +3509,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3510,7 +3535,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3536,7 +3561,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3562,7 +3587,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3588,7 +3613,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3614,7 +3639,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3640,7 +3665,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3666,7 +3691,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3692,7 +3717,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3718,7 +3743,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3744,7 +3769,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3770,7 +3795,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3796,7 +3821,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3822,7 +3847,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3848,7 +3873,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3874,7 +3899,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3900,7 +3925,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3926,7 +3951,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3952,7 +3977,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3978,7 +4003,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4004,7 +4029,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4030,7 +4055,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4056,7 +4081,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4082,7 +4107,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4108,7 +4133,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4134,7 +4159,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4160,7 +4185,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4186,7 +4211,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4212,7 +4237,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4238,7 +4263,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4264,7 +4289,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4290,7 +4315,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4316,7 +4341,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4342,7 +4367,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4368,7 +4393,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4394,7 +4419,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4420,7 +4445,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4446,7 +4471,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4472,7 +4497,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4498,7 +4523,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4524,7 +4549,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4550,7 +4575,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4576,7 +4601,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4602,7 +4627,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4628,7 +4653,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4654,7 +4679,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4680,7 +4705,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4706,7 +4731,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4732,7 +4757,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4758,7 +4783,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4784,7 +4809,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4810,7 +4835,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4836,7 +4861,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4862,7 +4887,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4888,7 +4913,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4914,7 +4939,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4940,7 +4965,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4966,7 +4991,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4992,7 +5017,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5018,7 +5043,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5044,7 +5069,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5070,7 +5095,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5096,7 +5121,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5122,7 +5147,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5148,7 +5173,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5174,7 +5199,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5200,7 +5225,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5226,7 +5251,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5252,7 +5277,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5278,7 +5303,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5304,7 +5329,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5330,7 +5355,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5356,7 +5381,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5382,7 +5407,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5408,7 +5433,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5434,7 +5459,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5460,7 +5485,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5486,7 +5511,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5512,7 +5537,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5538,7 +5563,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5564,7 +5589,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5590,7 +5615,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5616,7 +5641,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5642,7 +5667,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5668,7 +5693,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5694,7 +5719,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5720,7 +5745,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5746,7 +5771,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5772,7 +5797,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5798,7 +5823,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5824,7 +5849,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5850,7 +5875,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5876,7 +5901,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5902,7 +5927,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5928,7 +5953,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5954,7 +5979,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5980,7 +6005,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6006,7 +6031,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6032,7 +6057,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6058,7 +6083,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6084,7 +6109,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6110,7 +6135,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6136,7 +6161,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6162,7 +6187,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6188,7 +6213,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6214,7 +6239,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6240,7 +6265,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6266,7 +6291,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6292,7 +6317,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6318,7 +6343,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6344,7 +6369,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6370,7 +6395,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6396,7 +6421,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6422,7 +6447,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6448,7 +6473,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6474,7 +6499,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6500,7 +6525,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6526,7 +6551,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6552,7 +6577,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6578,7 +6603,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6604,7 +6629,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6630,7 +6655,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6656,7 +6681,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6682,7 +6707,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6708,7 +6733,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6734,7 +6759,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6760,7 +6785,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6786,7 +6811,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6812,7 +6837,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6838,7 +6863,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6864,7 +6889,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6890,7 +6915,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6916,7 +6941,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6942,7 +6967,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6968,7 +6993,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6994,7 +7019,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7020,7 +7045,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7046,7 +7071,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7072,7 +7097,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7098,7 +7123,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7124,7 +7149,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7150,7 +7175,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7176,7 +7201,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7202,7 +7227,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7228,7 +7253,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7254,7 +7279,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7280,7 +7305,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7306,7 +7331,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7332,7 +7357,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7358,7 +7383,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7384,7 +7409,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7410,7 +7435,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7436,7 +7461,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7462,7 +7487,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7488,7 +7513,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7514,7 +7539,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7540,7 +7565,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7566,7 +7591,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7592,7 +7617,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7618,7 +7643,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7644,7 +7669,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7670,7 +7695,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7696,7 +7721,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7722,7 +7747,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7748,7 +7773,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7774,7 +7799,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7800,7 +7825,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7826,7 +7851,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7852,7 +7877,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7878,7 +7903,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7904,7 +7929,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7930,7 +7955,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7956,7 +7981,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7982,7 +8007,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8008,7 +8033,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8034,7 +8059,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8060,7 +8085,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8086,7 +8111,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8112,7 +8137,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8138,7 +8163,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8164,7 +8189,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8190,7 +8215,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8216,7 +8241,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8242,7 +8267,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8268,7 +8293,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8294,7 +8319,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8320,7 +8345,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8346,7 +8371,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8372,7 +8397,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8398,7 +8423,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8424,7 +8449,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8450,7 +8475,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8476,7 +8501,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8502,7 +8527,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8528,7 +8553,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8554,7 +8579,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8580,7 +8605,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8606,7 +8631,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8632,7 +8657,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8658,7 +8683,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8684,7 +8709,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8710,7 +8735,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8736,7 +8761,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8762,7 +8787,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8788,7 +8813,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8814,7 +8839,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8840,7 +8865,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8866,7 +8891,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8892,7 +8917,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8918,7 +8943,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8944,7 +8969,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8970,7 +8995,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8996,7 +9021,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9022,7 +9047,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9048,7 +9073,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9074,7 +9099,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9100,7 +9125,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9126,7 +9151,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9152,7 +9177,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9178,7 +9203,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9204,7 +9229,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9230,7 +9255,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9256,7 +9281,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9282,7 +9307,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9308,7 +9333,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9334,7 +9359,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9360,7 +9385,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9386,7 +9411,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9412,7 +9437,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9438,7 +9463,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9464,7 +9489,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9490,7 +9515,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9516,7 +9541,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9542,7 +9567,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9568,7 +9593,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9594,7 +9619,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9620,7 +9645,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9646,7 +9671,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9672,7 +9697,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9698,7 +9723,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9724,7 +9749,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9750,7 +9775,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9776,7 +9801,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9802,7 +9827,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -9828,7 +9853,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -9854,7 +9879,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -9880,7 +9905,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9906,7 +9931,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9932,7 +9957,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9958,7 +9983,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9984,7 +10009,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10010,7 +10035,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10036,7 +10061,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10062,7 +10087,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10088,7 +10113,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10114,7 +10139,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10140,7 +10165,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10166,7 +10191,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10192,7 +10217,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10218,7 +10243,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10244,7 +10269,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10270,7 +10295,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10296,7 +10321,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10322,7 +10347,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10348,7 +10373,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10374,7 +10399,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10400,7 +10425,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10426,7 +10451,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10452,7 +10477,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10478,7 +10503,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10504,7 +10529,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -10530,7 +10555,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -10556,7 +10581,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -10582,7 +10607,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10608,7 +10633,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10634,7 +10659,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10660,7 +10685,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10686,7 +10711,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10712,7 +10737,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10738,7 +10763,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10764,7 +10789,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -10790,7 +10815,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10816,7 +10841,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -10842,7 +10867,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -10868,7 +10893,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -10894,7 +10919,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -10920,7 +10945,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -10946,7 +10971,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -10972,7 +10997,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -10998,7 +11023,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11024,7 +11049,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11050,7 +11075,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11076,7 +11101,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11102,7 +11127,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11128,7 +11153,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11154,7 +11179,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11180,7 +11205,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11206,7 +11231,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11232,7 +11257,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11258,7 +11283,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11284,7 +11309,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11310,7 +11335,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11336,7 +11361,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11362,7 +11387,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11388,7 +11413,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11414,7 +11439,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11440,7 +11465,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11466,7 +11491,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11492,7 +11517,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11518,7 +11543,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11544,7 +11569,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -11570,7 +11595,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -11596,7 +11621,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -11622,7 +11647,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -11648,7 +11673,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -11674,7 +11699,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -11700,7 +11725,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -11726,7 +11751,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -11752,7 +11777,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -11778,7 +11803,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -11804,7 +11829,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -11830,7 +11855,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -11856,7 +11881,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -11882,7 +11907,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -11908,7 +11933,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11934,7 +11959,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11960,7 +11985,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -11986,7 +12011,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12012,7 +12037,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12038,7 +12063,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12064,7 +12089,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12090,7 +12115,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12116,7 +12141,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12142,7 +12167,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12168,7 +12193,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12194,7 +12219,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12220,7 +12245,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12246,7 +12271,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12272,7 +12297,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12298,7 +12323,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12324,7 +12349,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12350,7 +12375,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -12376,7 +12401,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -12402,7 +12427,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -12428,7 +12453,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -12454,7 +12479,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -12480,7 +12505,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -12506,7 +12531,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -12532,7 +12557,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -12558,7 +12583,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -12584,7 +12609,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -12610,7 +12635,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -12636,7 +12661,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -12662,7 +12687,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -12688,7 +12713,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -12714,7 +12739,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -12740,7 +12765,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -12766,7 +12791,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -12792,7 +12817,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -12818,7 +12843,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -12844,7 +12869,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -12870,7 +12895,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -12896,7 +12921,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -12922,7 +12947,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -12948,7 +12973,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -12974,7 +12999,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13000,7 +13025,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13026,7 +13051,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13052,7 +13077,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13078,7 +13103,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13104,7 +13129,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13130,7 +13155,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13156,7 +13181,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13182,7 +13207,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13208,7 +13233,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13234,7 +13259,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13260,7 +13285,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13286,7 +13311,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13312,7 +13337,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13338,7 +13363,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13364,7 +13389,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13390,7 +13415,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -13416,7 +13441,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -13442,7 +13467,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -13468,7 +13493,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -13494,7 +13519,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -13520,7 +13545,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -13546,7 +13571,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -13572,7 +13597,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -13598,7 +13623,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -13624,7 +13649,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -13650,7 +13675,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -13676,7 +13701,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -13702,7 +13727,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -13728,7 +13753,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -13754,7 +13779,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -13780,7 +13805,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -13806,7 +13831,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -13832,7 +13857,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -13858,7 +13883,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -13884,7 +13909,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -13910,7 +13935,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -13936,7 +13961,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -13962,7 +13987,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -13988,7 +14013,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14014,7 +14039,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14040,7 +14065,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14066,7 +14091,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14092,7 +14117,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14118,7 +14143,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14144,7 +14169,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14170,7 +14195,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14196,7 +14221,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14222,7 +14247,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -14248,7 +14273,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -14274,7 +14299,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -14300,7 +14325,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -14326,7 +14351,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14352,7 +14377,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -14378,7 +14403,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -14404,7 +14429,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -14430,7 +14455,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -14456,7 +14481,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -14482,7 +14507,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -14508,7 +14533,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -14534,7 +14559,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -14560,7 +14585,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -14586,7 +14611,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -14612,7 +14637,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -14638,7 +14663,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -14664,7 +14689,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -14690,7 +14715,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -14716,7 +14741,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -14742,7 +14767,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -14768,7 +14793,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -14794,7 +14819,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -14820,7 +14845,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -14846,7 +14871,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -14872,7 +14897,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -14898,7 +14923,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -14924,7 +14949,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -14950,7 +14975,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -14976,7 +15001,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15002,7 +15027,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15028,7 +15053,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15054,7 +15079,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15080,7 +15105,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15106,7 +15131,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15132,7 +15157,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15158,7 +15183,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15184,7 +15209,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -15210,7 +15235,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -15236,7 +15261,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -15262,7 +15287,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -15288,7 +15313,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -15314,7 +15339,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -15340,7 +15365,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -15366,7 +15391,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -15392,7 +15417,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -15418,7 +15443,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -15444,7 +15469,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -15470,7 +15495,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -15496,7 +15521,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -15522,7 +15547,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -15548,7 +15573,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -15574,7 +15599,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -15600,7 +15625,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -15626,7 +15651,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -15652,7 +15677,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -15678,7 +15703,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -15704,7 +15729,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -15730,7 +15755,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -15756,7 +15781,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -15782,7 +15807,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -15808,7 +15833,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -15834,7 +15859,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -15860,7 +15885,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -15886,7 +15911,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -15912,7 +15937,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -15938,7 +15963,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -15964,7 +15989,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -15990,7 +16015,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16016,7 +16041,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16042,7 +16067,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16068,7 +16093,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16094,7 +16119,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16120,7 +16145,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16146,7 +16171,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -16172,7 +16197,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -16198,7 +16223,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -16224,7 +16249,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -16250,7 +16275,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -16276,7 +16301,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -16302,7 +16327,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -16328,7 +16353,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -16354,7 +16379,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -16380,7 +16405,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -16406,7 +16431,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -16432,7 +16457,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -16458,7 +16483,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -16484,7 +16509,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -16510,7 +16535,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -16536,7 +16561,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -16562,7 +16587,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -16588,7 +16613,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -16614,7 +16639,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -16640,7 +16665,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -16666,7 +16691,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -16692,7 +16717,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -16718,7 +16743,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -16744,7 +16769,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -16770,7 +16795,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -16796,7 +16821,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -16822,7 +16847,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -16848,7 +16873,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -16874,7 +16899,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -16900,7 +16925,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -16926,7 +16951,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -16952,7 +16977,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -16978,7 +17003,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -17004,7 +17029,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -17030,7 +17055,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17056,7 +17081,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17082,7 +17107,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17108,7 +17133,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -17134,7 +17159,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -17160,7 +17185,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -17186,7 +17211,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -17212,7 +17237,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -17238,7 +17263,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -17264,7 +17289,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -17290,7 +17315,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -17316,7 +17341,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -17342,7 +17367,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -17368,7 +17393,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -17394,7 +17419,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -17420,7 +17445,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -17446,7 +17471,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -17472,7 +17497,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -17498,7 +17523,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -17524,7 +17549,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -17550,7 +17575,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -17576,7 +17601,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -17602,7 +17627,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -17628,7 +17653,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -17654,7 +17679,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -17680,7 +17705,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -17706,7 +17731,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -17732,7 +17757,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -17758,7 +17783,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -17784,7 +17809,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -17810,7 +17835,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -17836,7 +17861,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -17862,7 +17887,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -17888,7 +17913,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -17914,7 +17939,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -17940,7 +17965,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -17966,7 +17991,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -17992,7 +18017,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -18018,7 +18043,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -18044,7 +18069,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -18070,7 +18095,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -18096,7 +18121,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -18122,7 +18147,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -18148,7 +18173,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -18174,7 +18199,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -18200,7 +18225,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -18226,7 +18251,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -18252,7 +18277,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -18278,7 +18303,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -18304,7 +18329,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -18330,7 +18355,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -18356,7 +18381,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -18382,7 +18407,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -18408,7 +18433,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -18434,7 +18459,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -18460,7 +18485,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -18486,7 +18511,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -18512,7 +18537,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -18538,7 +18563,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -18564,7 +18589,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -18590,7 +18615,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -18616,7 +18641,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -18642,7 +18667,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -18668,7 +18693,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -18694,7 +18719,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -18720,7 +18745,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -18746,7 +18771,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -18772,7 +18797,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -18798,7 +18823,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -18824,7 +18849,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -18850,7 +18875,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -18876,7 +18901,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -18902,7 +18927,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -18928,7 +18953,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -18954,7 +18979,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -18980,7 +19005,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -19006,7 +19031,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -19032,7 +19057,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -19058,7 +19083,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -19084,7 +19109,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -19110,7 +19135,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -19136,7 +19161,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -19162,7 +19187,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -19188,7 +19213,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -19214,7 +19239,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -19240,7 +19265,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -19266,7 +19291,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -19292,7 +19317,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -19318,7 +19343,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -19344,7 +19369,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -19370,7 +19395,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -19396,7 +19421,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -19422,7 +19447,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -19448,7 +19473,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -19474,7 +19499,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -19500,7 +19525,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -19526,7 +19551,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -19552,7 +19577,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -19578,7 +19603,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -19604,7 +19629,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -19630,7 +19655,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -19656,7 +19681,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -19682,7 +19707,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -19708,7 +19733,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -19734,7 +19759,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -19760,7 +19785,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -19786,7 +19811,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -19812,7 +19837,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -19838,7 +19863,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -19864,7 +19889,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -19890,7 +19915,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -19916,7 +19941,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -19942,7 +19967,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -19968,7 +19993,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -19994,7 +20019,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -20020,7 +20045,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -20046,7 +20071,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -20072,7 +20097,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -20098,7 +20123,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -20124,7 +20149,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -20150,7 +20175,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -20176,7 +20201,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -20202,7 +20227,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -20228,7 +20253,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -20254,7 +20279,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -20280,7 +20305,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -20306,7 +20331,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -20332,7 +20357,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -20358,7 +20383,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -20384,7 +20409,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -20410,7 +20435,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -20436,7 +20461,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -20462,7 +20487,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -20488,7 +20513,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -20514,7 +20539,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -20540,7 +20565,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -20566,7 +20591,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -20592,7 +20617,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -20618,7 +20643,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -20644,7 +20669,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -20670,7 +20695,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -20696,7 +20721,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -20722,7 +20747,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -20748,7 +20773,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -20774,7 +20799,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -20800,7 +20825,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -20826,7 +20851,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -20852,7 +20877,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -20878,7 +20903,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -20904,7 +20929,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -20930,7 +20955,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -20956,7 +20981,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -20982,7 +21007,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -21008,7 +21033,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -21034,7 +21059,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -21060,7 +21085,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -21086,7 +21111,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -21112,7 +21137,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -21138,7 +21163,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -21164,7 +21189,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -21190,7 +21215,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -21216,7 +21241,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -21242,7 +21267,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -21268,7 +21293,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -21294,7 +21319,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -21320,7 +21345,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -21346,7 +21371,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -21372,7 +21397,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -21398,7 +21423,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -21424,7 +21449,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -21450,7 +21475,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -21476,7 +21501,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -21502,7 +21527,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -21528,7 +21553,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -21554,7 +21579,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -21580,7 +21605,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -21606,7 +21631,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -21632,7 +21657,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -21658,7 +21683,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -21684,7 +21709,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -21710,7 +21735,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -21736,7 +21761,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -21762,7 +21787,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -21788,7 +21813,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -21814,7 +21839,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -21840,7 +21865,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -21866,7 +21891,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -21892,7 +21917,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -21918,7 +21943,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -21944,7 +21969,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -21970,7 +21995,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -21996,7 +22021,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -22022,7 +22047,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -22048,7 +22073,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -22074,7 +22099,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -22100,7 +22125,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -22126,7 +22151,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -22152,7 +22177,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -22178,7 +22203,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -22204,7 +22229,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -22230,7 +22255,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -22256,7 +22281,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -22282,7 +22307,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -22308,7 +22333,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -22334,7 +22359,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -22360,7 +22385,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -22386,7 +22411,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -22412,7 +22437,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -22438,7 +22463,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -22464,7 +22489,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -22490,7 +22515,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -22516,7 +22541,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -22542,7 +22567,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -22568,7 +22593,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -22594,7 +22619,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -22620,7 +22645,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -22646,7 +22671,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -22672,7 +22697,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -22698,7 +22723,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -22724,7 +22749,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -22750,7 +22775,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -22776,7 +22801,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -22802,7 +22827,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -22828,7 +22853,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -22854,7 +22879,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -22880,7 +22905,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -22906,7 +22931,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -22932,7 +22957,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -22958,7 +22983,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -22984,7 +23009,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -23010,7 +23035,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -23036,7 +23061,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -23062,7 +23087,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -23088,7 +23113,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -23114,7 +23139,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -23140,7 +23165,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -23166,7 +23191,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -23192,7 +23217,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -23218,7 +23243,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -23244,7 +23269,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -23270,7 +23295,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -23296,7 +23321,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -23322,7 +23347,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -23348,7 +23373,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -23374,7 +23399,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -23400,7 +23425,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -23426,7 +23451,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -23452,7 +23477,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -23478,7 +23503,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -23504,7 +23529,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -23530,7 +23555,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -23556,7 +23581,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -23582,7 +23607,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -23608,7 +23633,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -23634,7 +23659,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -23660,7 +23685,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -23686,7 +23711,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -23712,7 +23737,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -23738,7 +23763,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -23764,7 +23789,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -23790,7 +23815,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -23816,7 +23841,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -23842,7 +23867,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -23868,7 +23893,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -23894,7 +23919,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -23920,7 +23945,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -23946,7 +23971,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -23972,7 +23997,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -23998,7 +24023,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -24024,7 +24049,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -24050,7 +24075,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -24076,7 +24101,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -24102,7 +24127,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -24128,7 +24153,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -24154,7 +24179,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -24180,7 +24205,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -24206,7 +24231,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -24232,7 +24257,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -24258,7 +24283,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -24284,7 +24309,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -24310,7 +24335,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -24336,7 +24361,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -24362,7 +24387,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -24388,7 +24413,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -24414,7 +24439,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -24440,7 +24465,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -24466,7 +24491,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -24492,7 +24517,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -24518,7 +24543,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -24544,7 +24569,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -24570,7 +24595,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -24596,7 +24621,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -24622,7 +24647,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -24648,7 +24673,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -24674,7 +24699,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -24700,7 +24725,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -24726,7 +24751,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -24752,7 +24777,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -24778,7 +24803,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -24804,7 +24829,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -24830,7 +24855,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -24856,7 +24881,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -24882,7 +24907,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -24908,7 +24933,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -24934,7 +24959,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -24960,7 +24985,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -24986,7 +25011,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -25012,7 +25037,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -25038,7 +25063,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -25064,7 +25089,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -25090,7 +25115,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -25116,7 +25141,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -25142,7 +25167,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -25168,7 +25193,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -25194,7 +25219,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -25220,7 +25245,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -25246,7 +25271,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -25272,7 +25297,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -25298,7 +25323,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -25324,7 +25349,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -25350,7 +25375,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -25376,7 +25401,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -25402,7 +25427,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -25428,7 +25453,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -25454,7 +25479,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -25480,7 +25505,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -25506,7 +25531,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -25532,7 +25557,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -25558,7 +25583,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -25584,7 +25609,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -25610,7 +25635,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -25636,7 +25661,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -25662,7 +25687,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -25688,7 +25713,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -25714,7 +25739,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -25740,7 +25765,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -25766,7 +25791,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -25792,7 +25817,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -25818,7 +25843,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -25844,7 +25869,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -25870,7 +25895,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -25896,7 +25921,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -25922,7 +25947,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -25948,7 +25973,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -25974,7 +25999,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -26000,7 +26025,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -26026,7 +26051,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -26052,7 +26077,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -26078,7 +26103,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -26104,7 +26129,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -26130,7 +26155,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -26156,7 +26181,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -26182,7 +26207,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -26208,7 +26233,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -26234,7 +26259,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -26260,7 +26285,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -26286,7 +26311,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -26312,7 +26337,7 @@
       <c r="W985" s="1"/>
       <c r="X985" s="1"/>
     </row>
-    <row r="986" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -26338,7 +26363,7 @@
       <c r="W986" s="1"/>
       <c r="X986" s="1"/>
     </row>
-    <row r="987" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -26364,7 +26389,7 @@
       <c r="W987" s="1"/>
       <c r="X987" s="1"/>
     </row>
-    <row r="988" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -26390,7 +26415,7 @@
       <c r="W988" s="1"/>
       <c r="X988" s="1"/>
     </row>
-    <row r="989" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -26416,7 +26441,7 @@
       <c r="W989" s="1"/>
       <c r="X989" s="1"/>
     </row>
-    <row r="990" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -26442,7 +26467,7 @@
       <c r="W990" s="1"/>
       <c r="X990" s="1"/>
     </row>
-    <row r="991" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -26468,7 +26493,7 @@
       <c r="W991" s="1"/>
       <c r="X991" s="1"/>
     </row>
-    <row r="992" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -26494,7 +26519,7 @@
       <c r="W992" s="1"/>
       <c r="X992" s="1"/>
     </row>
-    <row r="993" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -26520,7 +26545,7 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
     </row>
-    <row r="994" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -26546,7 +26571,7 @@
       <c r="W994" s="1"/>
       <c r="X994" s="1"/>
     </row>
-    <row r="995" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -26572,7 +26597,7 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
     </row>
-    <row r="996" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -26598,7 +26623,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
     </row>
-    <row r="997" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -26624,7 +26649,7 @@
       <c r="W997" s="1"/>
       <c r="X997" s="1"/>
     </row>
-    <row r="998" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -26650,7 +26675,7 @@
       <c r="W998" s="1"/>
       <c r="X998" s="1"/>
     </row>
-    <row r="999" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -26676,7 +26701,7 @@
       <c r="W999" s="1"/>
       <c r="X999" s="1"/>
     </row>
-    <row r="1000" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>

--- a/prdz.xlsx
+++ b/prdz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Физика</t>
   </si>
   <si>
-    <t>Вариант 23 + файл</t>
-  </si>
-  <si>
     <t>Русский язык</t>
   </si>
   <si>
@@ -62,13 +59,7 @@
     <t>Информатика</t>
   </si>
   <si>
-    <t>Защита лабораторных работ</t>
-  </si>
-  <si>
     <t>История</t>
-  </si>
-  <si>
-    <t>§41 - читать. Начать готовить презентации к 09.04.2019</t>
   </si>
   <si>
     <t>Литература</t>
@@ -116,38 +107,28 @@
     <t>Мат. анализ</t>
   </si>
   <si>
-    <t>Взять форму для занятий в зале</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Читать стихи Ахматовой из списка (спс Мише) :
-1. «Любовь»
-2. «Сероглазый король»
-3. «Он любил…»
-4. «Туманом легким сад наполнился…»
-5. «Смятение»
-6. «Вечером»
-7. «Все мы бражники здесь, блудницы…»
-8. «Я научилась просто, мудро жить…»
-9. «Ты письмо мое, милый, не комкай…»
-10. «Двадцать первое. Ночь. Понедельник…»
-11. «Сжала руки под темной вуалью» 
-12. «Нет, царевич, я не та…» 
-13. «Уединение»
-14. «Мне голос был, он звал утешно…» 
-15. «Молитва» 
-16. «Не с теми я, кто бросил землю»
-17. «Мужество» 
-18. Поэма «Реквием»
-</t>
-  </si>
-  <si>
     <t>Готовиться к защите вашей темы  (см файл)</t>
   </si>
   <si>
-    <t>хз</t>
+    <t>Взять форму</t>
   </si>
   <si>
-    <t>Тем, кто не сдал слова из 5 модуля до каникул, могут сдать их завтра</t>
+    <t>ничего</t>
+  </si>
+  <si>
+    <t>Подготовиться тем, кто еще не выступал</t>
+  </si>
+  <si>
+    <t>Читать стихи Ахматовой из списка (см ниже)</t>
+  </si>
+  <si>
+    <t>делайте, что хотите, она все равно не чекает</t>
+  </si>
+  <si>
+    <t>Шевцовой не будет, отдыхайте, работяги</t>
+  </si>
+  <si>
+    <t>Защита лабораторных рвбот</t>
   </si>
 </sst>
 </file>
@@ -633,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +746,7 @@
     </row>
     <row r="5" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -798,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -825,10 +806,10 @@
     </row>
     <row r="7" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -855,10 +836,10 @@
     </row>
     <row r="8" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -885,10 +866,10 @@
     </row>
     <row r="9" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -915,10 +896,10 @@
     </row>
     <row r="10" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -943,9 +924,9 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>30</v>
@@ -975,10 +956,10 @@
     </row>
     <row r="12" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1005,10 +986,10 @@
     </row>
     <row r="13" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1035,10 +1016,10 @@
     </row>
     <row r="14" spans="1:24" ht="22" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1065,10 +1046,10 @@
     </row>
     <row r="15" spans="1:24" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1095,10 +1076,10 @@
     </row>
     <row r="16" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1125,10 +1106,10 @@
     </row>
     <row r="17" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1155,10 +1136,10 @@
     </row>
     <row r="18" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1185,10 +1166,10 @@
     </row>
     <row r="19" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1215,10 +1196,10 @@
     </row>
     <row r="20" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1245,10 +1226,10 @@
     </row>
     <row r="21" spans="1:24" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
